--- a/data/case1/20/Plm2_14.xlsx
+++ b/data/case1/20/Plm2_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.076070829024388331</v>
+        <v>-0.11449925658460813</v>
       </c>
       <c r="B1" s="0">
-        <v>0.075715172862487634</v>
+        <v>0.11401871104348515</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0040029490140529589</v>
+        <v>-0.028031130590594699</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0029571869679347884</v>
+        <v>0.026897829166939502</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.099976472445682418</v>
+        <v>0.1047432272631319</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.10061794119171097</v>
+        <v>-0.10528701869039736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.18337281328335209</v>
+        <v>-0.1787058612567094</v>
       </c>
       <c r="B4" s="0">
-        <v>0.18219169582231487</v>
+        <v>0.17768106066594669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.17619169630614007</v>
+        <v>-0.17168106106860126</v>
       </c>
       <c r="B5" s="0">
-        <v>0.17379953478425403</v>
+        <v>0.16961622171553703</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.072909278803211741</v>
+        <v>-0.086515045214242914</v>
       </c>
       <c r="B6" s="0">
-        <v>0.072838918173840916</v>
+        <v>0.0864009664743568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.052838918769811727</v>
+        <v>-0.066400966969618835</v>
       </c>
       <c r="B7" s="0">
-        <v>0.052704311565610951</v>
+        <v>0.066146086033311846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.032704312165696692</v>
+        <v>-0.0461460865330654</v>
       </c>
       <c r="B8" s="0">
-        <v>0.032631846851129964</v>
+        <v>0.045966618346450439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.02663184736265567</v>
+        <v>-0.039966618774903928</v>
       </c>
       <c r="B9" s="0">
-        <v>0.026582880076253979</v>
+        <v>0.039826610767492276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0052299390005643431</v>
+        <v>-0.033826611200218792</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0052300109382201754</v>
+        <v>0.03381103779799588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0097300104334152593</v>
+        <v>-0.051480473114548175</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0097434297306655537</v>
+        <v>0.051400889730288668</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.015743429216191984</v>
+        <v>-0.045400890165177898</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.015837227305415258</v>
+        <v>0.045153316195359672</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.021837226793356201</v>
+        <v>-0.039153316637627888</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.021886690916303131</v>
+        <v>0.039085945307554937</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.033886690365889649</v>
+        <v>-0.027085945784699028</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.033987708971855213</v>
+        <v>0.027053452295812797</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.039987708463154803</v>
+        <v>-0.021053452741948142</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.040141015212731723</v>
+        <v>0.02102788373620168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.046141014707189232</v>
+        <v>-0.015027884183895779</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.046463972194852321</v>
+        <v>0.015004434200772909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090040244739624242</v>
+        <v>-0.0090044346505218087</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994814098372</v>
+        <v>0.0089999995333851501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.061712224353605905</v>
+        <v>-0.036109857873483975</v>
       </c>
       <c r="B18" s="0">
-        <v>0.061650885895279117</v>
+        <v>0.0360966389975097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.052650886394535856</v>
+        <v>-0.027096639411961387</v>
       </c>
       <c r="B19" s="0">
-        <v>0.052188244495813496</v>
+        <v>0.027013638983043098</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.043188245004262882</v>
+        <v>-0.018013639401175396</v>
       </c>
       <c r="B20" s="0">
-        <v>0.043094720640283413</v>
+        <v>0.018004262968839058</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.009004325584783146</v>
+        <v>-0.0090042633875508926</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999994892147051</v>
+        <v>0.0089999995808653921</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.09393365991300584</v>
+        <v>-0.12264105684582027</v>
       </c>
       <c r="B22" s="0">
-        <v>0.09362535335116462</v>
+        <v>0.12206459378089463</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084625353854663743</v>
+        <v>-0.084628630472859179</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124954886027226</v>
+        <v>0.084125641182657418</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124955615295612</v>
+        <v>-0.042125641789492185</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999266923105</v>
+        <v>0.041999999389831011</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094890256482912605</v>
+        <v>-0.07710117691864582</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094649712918634776</v>
+        <v>0.076987441122135181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088649713422462639</v>
+        <v>-0.026184836664967293</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088339013163690083</v>
+        <v>0.026151293177839818</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082339013670038153</v>
+        <v>-0.020151293597007403</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081273481391905822</v>
+        <v>0.020048225487221849</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.07527348190935168</v>
+        <v>-0.014048225908595668</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074535244254071209</v>
+        <v>0.013987819330056439</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.06253524481870798</v>
+        <v>-0.0019878197852296609</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062169481952112804</v>
+        <v>0.0019699915811060009</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042169482573375383</v>
+        <v>0.018030007920097457</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019466282327667</v>
+        <v>-0.018136296179442457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019466875879417</v>
+        <v>-0.027018745430941848</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000677373496984</v>
+        <v>0.027000766303313384</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006780076324873</v>
+        <v>-0.0060007668065598097</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994647332855</v>
+        <v>0.0059999995782975546</v>
       </c>
     </row>
   </sheetData>
